--- a/deuChatbot/research_result/results/sem_score/sem_version_2(2500_200).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_2(2500_200).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6132,61 +6132,3460 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 기초디자인과 사고의 전환 두 가지 종목으로 구성되어 있습니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 잠자리와 저울을 연결하는 주제, 콜라병과 계절을 연결하는 주제 등이 있습니다.
+   - **화지크기**: 켄트지 3절입니다.
+   - **시험시간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로 콜라병과 계절을 연결하는 주제, 바이러스와 자유를 연결하는 주제 등이 있습니다.
+   - **화지크기**: 켄트지 2절입니다.
+   - **시험시간**: 5시간 동안 진행됩니다.
+디자인조형학과의 실기시험은 창의성과 표현력, 그리고 문제 해결 능력을 평가하기 위해 이러한 종목들이 설정되어 있습니다. 준비할 때는 주제와 관련된 다양한 아이디어를 발전시키고, 표현에 필요한 도구들을 잘 활용하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7966335687041283</v>
+        <v>0.7948284149169922</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인 / 산업디자인 / 공예디자인이 있으며, 실기 종목(택1)은 기초디자인 및 사고의 전환입니다.
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 다음과 같습니다:
+  - **주제A**: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - **주제B**: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- **화지크기**: 켄트지3절입니다.
+- **시험기간**: 시간은 5시간입니다.
+이러한 준비물을 가지고 당일 추첨된 주제에 따라 연결된 주제를 표현하는 실기를 진행하게 됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7758899945020675</v>
+        <v>0.9241669178009033</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+1. **배드민턴(남)**:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어국제대회로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. **축구(남)**:
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 문화체육관광부장관배전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - 금석배전국고등학생축구대회
+   - 부산MBC전국고등학생축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전
+이러한 대회들 중 일부는 특정 지역이나 연령 그룹에 초점을 맞추고 있으며, 다른 일부는 전국적인 규모를 가지고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.9559566378593445</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 시각디자인, 산업디자인, 공예디자인 실기종목별 준비물, 실기주제, 화지크기 및 시험기간에서 기초디자인의 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+이 주제들은 당일 추첨을 통해 각각 1개씩 선정되어 연결된 주제를 만드는 데 사용됩니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.9395880103111267</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+특히, 제공된 정보 중에서 학생부교과 전형의 경우 대부분 다음과 같은 비율로 구성되어 있습니다:
+- 가군 수능(일반학생전형), 실기/실적(일반학생전형): 출결 점수가 반영되지 않음
+- 나군 수능(일반학생전형), 실기/실적(일반학생전형): 출결 점수가 반영되지 않음
+- 다군 수능(일반학생전형): 출결 점수가 반영되지 않음
+따라서, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않는 것으로 보입니다. 하지만 특정 모집단위나 전형에 따라 다르게 적용될 수 있으므로, 최종적인 규정은 해당 대학의 공식 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5923009514808655</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024년 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.6629557609558105</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+이 정보는 다음과 같은 문단에서 얻었습니다:
+다군 수능(일반학생전형) 모집단위 및 모집인원에서 단과대학은 인문사회과학대학이며, 계열은 인문사회이며, 모집단위은 영어영문학과 - 교직이며, 모집인원은 28이다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.7796043157577515</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.9557217359542847</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1: 139점
+- 등급 2: 131점
+- 등급 3: 123점
+- 등급 4: 115점
+- 등급 5: 107점
+- 등급 6: 99점
+- 등급 7: 91점
+- 등급 8: 83점
+- 등급 9: 75점
+이 점수들은 각 등급별로 대략적인 변환값을 나타내며, 실제 변환은 공정한 평가를 위해 정확하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.8289210200309753</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원 가능합니다. 
+고교유형별 지원자격에서 다음과 같이 명시되어 있습니다:
+- 모집군은 나군이며,
+- 전형명은 학생부교과(농어촌학생전형)이며, 
+- 고교유형별 지원자격의 특수목적고의 예술고는 지원 가능합니다.
+따라서 예술고 학생도 나군 학생부교과(농어촌학생전형)로 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.8824971914291382</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 거리가 268～271cm, 여은 거리가 218~221cm이며, 해당 등급의 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.8052167296409607</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 출결의 반영 비율은 12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 확인할 수 있습니다. 경기지도학과의 경우, 전형요소 반영비율은 다음과 같습니다:
+- 학생부교과: 18%
+- 출결: 12% (이 질문에 대한 답변)
+- 서류(경기실적): 70%
+따라서, 경기지도학과의 출결 반영 비율은 총 전형 점수 중에서 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.6439483165740967</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9864264130592346</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.8344929218292236</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学2024学年应用化学专业的具体最低录取标准。根据给出的信息，所有专业在一般学生入学考试（수능）中的最低标准都是“없음”（不存在），即没有设定统一的最低分数要求。
+如果需要了解具体的最低录取分数线，建议访问东义大学官方网站（https://ipsi.deu.ac.kr/main.do）查询最新的招生简章或直接联系学校的招生办公室获取准确信息。</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.3832496702671051</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과와 전공은 다음과 같습니다:
+1. 아동학과 (从前的保育·가정상담학과分出)
+2. 금융경영학과 (从前的经济金融保险学과分出)
+3. 경영정보학과 및 e비즈니스학과 (从前的信息经营學部拆分为两个专业)
+4. 부동산자산경영학부 (부동산투자학, 부동산개발경영학) 
+5. 심리학과
+6. 스마트항만물류학과
+7. 창업투자경영학과
+8. 라이프융합학부 (スタ트업創投投資學, 美容商業學, 生活文化學)
+9. 경기지도학과
+위와 같이 2024년에 신설된 학과와 전공들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.8702070713043213</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9566861391067505</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 공과대학 및 ICT융합공과대학 모집단위에서 수능 가산점을 적용합니다. 
+특히, 공과대학과 ICT융합공과대학 모집단위에서는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여한다고 언급되어 있습니다.
+따라서, 해당 학과에서 수능 성적이 중요한 요소가 될 것이며, 특히 수학을 잘하는 학생들에게 유리한 조건이 제공됩니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.9761238098144531</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. **모집단위**: 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. **반영 영역 및 비율**:
+   - 국어(화법과작문 또는 언어와매체): 25%
+   - 수학(확률과통계 또는 미적분 또는 기하): 25%
+   - 영어: 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 중 2개 과목 합): 25%
+3. **가산점**: 가산점이 없습니다.
+따라서, 가군에서 수능 성적은 국어, 수학, 영어, 탐구 등 네 가지 영역을 각각 25%씩 반영하며, 이들 영역의 표준점수와 등급 점수를 합산하여 최종 점수를 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8575727939605713</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- **레저스포츠학과, 태권도학과**:
+  - 일정: 2024. 01. 16.(화)
+이 정보는 전형일정에서 확인되었습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.9102568626403809</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외되었습니다. 이는 전형료 항목에서 확인할 수 있습니다:
+전형료에서:
+- 전형명은 &lt;나&gt;군 실기/실적(일반학생전형)이며,
+- 모집단위은 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과이며,
+- 전형료(수수료 포함)는 68,000원이다.
+따라서 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외되었습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9164201617240906</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이는 "전형요소 반영비율" 항목에서 확인할 수 있습니다. 
+다군 수능(일반학생전형)에 대한 정보는 다음과 같습니다:
+- 전형명: 다군 수능(일반학생전형)
+- 모집단위: 전 모집단위
+- 전형요소 반영비율의 수능: 100%
+- 수능최저기준: 수능최저기준 없음
+따라서, 다군 전형에서는 수능 최저 점수 기준이 설정되어 있지 않으며, 수능 성적이 100% 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8985850214958191</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+위와 같이 여러 학과가 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9904575347900391</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서 접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+상세 정보는 다음과 같습니다:
+- 내용: 원서접수(인터넷)
+- 일정: 2024. 01. 03.(수)～2024. 01. 06.(토) 
+- 마감일: 18시까지
+참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.813238263130188</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **학생부종합 평가영역 변경**:
+   - 2023학년도: 인성 | 학업역량 | 전공적합성
+   - 2024학년도: 공동체역량 | 학업역량 | 전공적합성
+2. **전형요소 반영비율 변경**:
+   - 일부 전형에서 학생부 교과, 출결, 서류, 면접, 실기, 수능의 비율이 조정되었습니다.
+3. **정시모집군 변경**:
+   - 예를 들어, 영어영문학과 (가) → 영어영문학과 (다)
+   - 호텔‧컨벤션경영학과 (나) → 호텔‧컨벤션경영학과 (가)
+4. **전형명 및 지원자격 변경**:
+   - 학생부종합(성인학습자(정원내)전형): 2023년은 특성화고 등을 졸업한 재직자였으나, 2024년에는 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자로 변경되었습니다.
+이러한 변화들은 전반적으로 평가 방식과 지원 자격을 더 세밀하게 조정하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.9212844371795654</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기 비중이 70%입니다.
+이는 다음과 같이 나옵니다:
+- 가군 실기/실적(일반학생전형) 전형요소 반영비율에서:
+  - 모집단위는 레저스포츠학과, 태권도학과
+  - 수능 비중은 30%
+  - 실기 비중은 70%
+따라서, 가군 실기/실적 전형에서는 실기가 큰 비중을 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9547713994979858</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+따라서, 라이프융합학부는 이 3개의 세부 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.9529348611831665</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (가군 실기/실적(일반학생전형))
+2. 태권도학과 (가군 실기/실적(일반학생전형))
+이 두 학과에서만 실기고사가 요구됩니다. 기타 학과는 일반 수능 성적이 주요 평가 기준입니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9475605487823486</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 시행하는 학과는 다음과 같습니다:
+1. **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**
+2. **체육학과**
+이 두 학과는 2024년도에 실기/실적 위주 전형을 통해 모집을 진행합니다.
+추가 정보:
+- 해당 학과들은 2024년 1월 17일(수)에 실기고사를 치릅니다.
+- 서류 제출은 2024년 1월 3일(수)부터 12일(금)까지 가능하며, 마감 시간은 각각 18시와 17시입니다.
+자세한 내용은 동의대학교 입학처 홈페이지를 참고하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.8982910513877869</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 미래융합대학 라이프융합학부는 다음과 같은 세 가지 전공을 신설하여 제공합니다:
+1. 스타트업 창업 투자학 (스타트업창업투자학)
+2. 뷰티 비즈니스학 (뷰티비즈니스학) 
+3. 라이프 생활 문화학 (라이프생활문화학)
+이 학부는 주로 평생학습자, 성인학습자(정원내/외), 재직자를 대상으로 하고 있습니다.
+또한 이 학부는 2024년도에 신설되었으며, 정원 인원은 각각 11명, 23명, 7명, 17명, 7명 등이 예정되어 있습니다. 
+따라서 동의대학교 라이프융합학부는 스타트업 창업 투자, 뷰티 비즈니스, 라이프 생활 문화 등 세 가지 전공을 제공합니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.5898017883300781</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊目的高中（如科学高、国际高、外语高）的学生，你有资格申请동의大学的一般学生入学考试（가군 수능 (일반학생전형)）。具体来说：
+- 特殊目的高中：科学高、国际高、外语高 是支持的。
+- 特殊目的高中：艺术高、体育高 不支持。
+- 特殊目的高中：工贸高 是支持的。
+所以，如果你是科学高、国际高或外语高的学生，你是可以申请一般学生入学考试（가군 수능 (일반학생전형)）的。请确认你所在的高中类型是否在支持范围内。如果有其他疑问，建议访问东义大学官方网站 https://ipsi.deu.ac.kr/main.do 获取更多信息。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.3852098882198334</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인해보겠습니다.
+1. **중어중국학과 - 교직**: 정원 내 모집 인원은 46명입니다.
+2. **일본학과 - 교직**: 정원 내 모집 인원은 55명입니다.
+3. **영어영문학과 - 교직**: 정원 내 모집 인원은 50명입니다.
+이 중에서 가장 많은 인원을 모집하는 학과는 **일본학과 - 교직**으로, 정원 내 모집 인원이 55명입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9126690626144409</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교의 학생부교과 농어촌학생전형으로 지원이 가능합니다. 
+특수목적고등학교 중에서 과학고, 국제고, 외국어고는 지원이 불가능하지만, 예술고, 체육고, 마이스터고는 지원이 가능합니다.
+따라서, 만약 예술고, 체육고 또는 마이스터고에 다니고 있다면, 동의대학교 학생부교과 농어촌학생전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.9280523061752319</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 ICT융합공과대학 소프트웨어공학부의 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+이 데이터는 다음과 같이 나옵니다:
+- 단과대학: ICT융합공과대학
+- 모집단위: 소프트웨어공학부
+- 지원 인원: 146명
+- 경쟁률: 4.87
+- 충원 합격 (후보순위): 63명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.8381070494651794</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.8621582984924316</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 입시에서는 합격자 발표 일정이 다음과 같습니다:
+- **최초 합격자 발표**: 2024년 2월 2일(금) 14:00
+- **최초 합격자 등록**: 2024년 2월 7일(수) ~ 2월 13일(화)
+- **충원 합격자 발표 (1차)**: 2024년 2월 14일(수) 09:00
+- **충원 합격자 등록 (1차)**: 2024년 2월 14일(수) 09:00 ~ 16:00
+- **충원 합격자 발표 (2차)**: 2024년 2월 15일(목) 09:00
+- **충원 합격자 등록 (2차)**: 2024년 2월 15일(목) 09:00 ~ 16:00
+- **충원 합격자 발표 (3차 이후)**: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+이 중에서 가장 먼저 이루어지는 최초 합격자 발표는 2024년 2월 2일(금) 14:00입니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.9531153440475464</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일 수요일에 &lt;나&gt;군 실기고사 중 체육학과와 디자인조형학과의 면접평가가 있습니다. 자세한 일정은 입학안내 홈페이지에서 확인하실 수 있습니다.
+대기실 및 입실 시간 안내는 2024년 1월 12일 금요일 오후 2시 이후에 입학안내 홈페이지에서 제공됩니다.
+면접을 보러 가실 때는 블라인드 면접 방식에 따라 개인 신상 정보 노출을 금지하고, 교복 착용도 금지된 점 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7817838191986084</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到韩医专业（한의예과）的具体最低学力标准。通常，韩国大学的最低入学要求包括高中毕业或同等学历。对于特定专业的额外要求可能会有所不同。
+如果您需要了解具体的最低学力标准，建议访问以下网站获取最新和详细的信息：
+https://ipsi.deu.ac.kr/main.do
+或者直接联系学校招生办公室以获得最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.2659905850887299</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 보면, 전형요소 반영비율에서 수능최저기준 항목은 다음과 같이 나옵니다:
+- **가군 수능(일반학생전형) 전 모집단위 (레저스포츠학과, 태권도학과 제외)**: 수능최저기준 없음
+- **나군 수능(일반학생전형) 전 모집단위 (한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외)**: 수능최저기준 없음
+- **다군 수능(일반학생전형) 전 모집단위**: 수능최저기준 없음
+- **가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과**: 수능최저기준 없음
+- **나군 실기/실적(일반학생전형) 디자인조형학과, 체육학과**: 수능최저기준 없음
+- **다군 실기/실적(일반학생전형) 경기지도학과**: 수능최저기준 없음
+따라서, 제공된 정보에 따르면 대부분의 전형에서 수능 최저학력 기준이 없습니다. 특정 전형이나 모집단위가 수능 최저학력 기준을 요구하는 경우에는 해당 항목에 명시되어 있을 것입니다.
+만약 더 구체적인 정보나 변경사항이 있는 경우, 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 확인하시거나 관계부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6592368483543396</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024학년도 충원합격자는 다음과 같은 일정에 따라 발표됩니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 충원 합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+- **2차 충원 합격자 등록**: 2024. 02. 15.(목) 09:00~16:00
+이후에는 **3차 이후 충원 합격자 발표**가 있으며, 이는 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지 이루어집니다.
+발표 및 등록에 대한 자세한 내용은 입학관리팀 또는 학교 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.9588108062744141</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024. 02. 15.(목) 09:00부터 추가합격자 발표가 시작됩니다. 이 시점부터 3차까지의 추가합격자는 다음과 같이 진행됩니다:
+- 2024. 02. 15.(목) 09:00 ~ 16:00 : 3차 추가합격자 인터넷 등록
+- 이후 일정은 개별 전화 통보를 통해 안내되며, 발표는 홈페이지에서 개별 조회 가능합니다.
+추가합격자는 이 기간 내에 홈페이지에서 개인적으로 합격 정보를 확인하고 등록을 마쳐야 합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.8805749416351318</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到是否进行额外招生（추가모집）的内容。为了获取准确的信息，建议访问以下网站以获得最新的招生政策和通知：
+https://ipsi.deu.ac.kr/main.do
+您可以查看该网站上的最新公告或联系学校招生办公室以确认是否有额外的招生计划。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.4464281499385834</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형 중 하나입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)
+   - 산업체 적용 범위: 
+     1. 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+     2. 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+     3. 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 전형 요소 및 비율:
+   - 서류: 70%
+   - 면접: 30%
+3. 제출서류:
+   - 고교 졸업(예정)자는 고교 학교생활기록부
+   - 검정고시 출신자 또는 외국고교 졸업(예정)자는 검정고시 합격증서, 성적증명서 등
+4. 서류 평가 영역:
+   - 공동체역량: 협업능력
+   - 학업역량: 학업태도 / 학업성취
+   - 전공적합성: 열정 및 지원전공(계열) 관련 활동
+5. 주요 일정:
+   - 원서접수: 2024년 1월 3일 ~ 6일 (마감 18시)
+   - 서류 제출: 2024년 1월 3일 ~ 12일 (마감 17시)
+이 전형은 성인 학습자들의 다양한 경력과 경험을 고려하여 평가하며, 실질적인 학업역량과 전공적합성을 중점으로 평가합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.7348740100860596</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **고등학교 졸업(예정)자**:
+   - 고교 학교생활기록부 1부를 제출합니다.
+   - 학생부 온라인 제공 동의자가 필요하지 않습니다.
+2. **검정고시 출신자**:
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)
+3. **외국 고등학교 졸업(예정)자**:
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류(제출 여부 선택 가능)
+   - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 합니다.
+4. **재직기간**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 합니다.
+   - 제출한 지원 자격 증빙서류 상의 기간만 산정됩니다.
+   - 중복된 기간은 이중으로 합산되지 않습니다.
+   - 군 의무 복무 경력도 재직기간으로 인정됩니다.
+5. **산업체 적용 범위**:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 따라 상시근로자 5인 이상 사업체 (사업주 포함)
+   - 4대 보험 중 1개 이상 가입된 사업체 (창업·자영업자 포함)
+     ※ 단, 4대 보험 가입 대상이 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정될 수 있습니다.
+위와 같은 자격 요건을 충족해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.7549082636833191</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2024년 1월 17일 수요일에 실기고사가 있습니다. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)와 체육학과의 실기고사는 이 날짜에 치러집니다.
+具体的来说，实操考试安排在2024年1月17日（星期三）进行。设计造型学部（视觉设计、工业设计、工艺设计）和体育学部的实操考试将在这一天举行。
+如果您需要进一步的信息或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.7688685655593872</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위 및 종목**:
+   - 모집단위: 체육학과
+   - 종목별 배점(비율):
+     - 제자리 멀리뛰기: 240점 (24%)
+     - 메디신볼 던지기: 243점 (23%)
+     - Z-런: 230점 (23%)
+2. **일정**:
+   - 실기고사 일정은 정확히 제공되지 않았지만, 일반적으로 실기고사는 원서접수 후 일정 시간이 경과한 뒤에 진행됩니다.
+3. **준비사항**:
+   - 각 종목별로 필요한 준비물과 규칙을 확인해야 합니다.
+   - 예를 들어, 제자리 멀리뛰기는 특정 거리를 뛰어야 하며, 메디신볼 던지기와 Z-런은 각각의 기술을 수행해야 합니다.
+4. **장소**:
+   - 실기고사는 대학 내에서 진행되며, 정확한 장소는 공지일정이나 입학 안내 홈페이지를 통해 확인할 수 있습니다.
+따라서 체육학과의 실기고사는 해당 학교 내에서 각 종목별로 준비하고 시험을 치르게 됩니다. 구체적인 일정과 장소는 입학 안내 홈페이지나 공지사항을 참고하시면 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.4771271944046021</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024년도 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 가능성이 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개인적으로 합격 결과를 확인해야 합니다.
+전형일정에 따르면, 충원 합격자 발표 및 등록 일정은 다음과 같습니다:
+- 2024년 2월 15일 (목) 09:00 - 충원 합격자 1차 발표
+- 2024년 2월 15일 (목) 09:00 ~ 16:00 - 충원 합격자 1차 등록
+합격자 발표 후에는 다음과 같은 절차를 따르세요:
+1. 홈페이지에서 개별 조회
+2. 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령
+3. 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+개별 전화 통보는 일부 합격자에게만 이루어질 수 있으며, 이는 합격자의 개인 정보 보호를 위해 이루어집니다.
+따라서 홈페이지 확인 후 개별적으로 연락이 오면 그에 따라 처리하시면 됩니다. 만약 추가적인 질문이나 자세한 안내가 필요하다면 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.7126972079277039</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 자료에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 일부 추론이 가능합니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원은 29명으로, 경쟁률은 4.14입니다. 충원 합격자는 7명으로 전액 채워졌습니다.
+이 정보를 바탕으로 추론하면:
+- 2023학년도에도 대략 비슷한 수준의 모집 인원과 지원 인원, 경쟁률이 유지되었을 가능성이 높습니다.
+- 충원 합격자 수도 7명으로 전액 채워졌을 것으로 예상됩니다.
+하지만 정확한 2023학년도 수시모집 결과는 공식 발표나 입학처 웹사이트를 참조해야 합니다. 자세한 정보는 https://ipsi.deu.ac.kr/main.do 링크에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.8199529647827148</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제와 실기/실적 위주전형을 제외하고는, 대부분의 전형에서는 수능 응시가 필수입니다. 하지만 일부 특별한 경우에 수능 응시를 하지 않아도 지원할 수 있는 방법이 있습니다.
+예를 들어, 평생학습자전형이나 성인학습자전형 등에서 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 지원 자격을 갖추는 경우, 수능 응시가 필요하지 않습니다. 이 경우에는 다른 서류 제출이 요구되며, 구체적인 지원 자격과 제출서류는 해당 전형의 세부 안내를 참조해야 합니다.
+또한, 검정고시 출신자나 외국 고등학교 졸업(예정)자는 수능 대신 다른 서류를 제출하여 지원할 수 있습니다. 
+따라서, 정시에 수능 응시하지 않아도 지원 가능한 전형이 있지만, 해당 전형의 세부 조건과 요구 사항을 확인해야 합니다.
+더 자세한 정보는 [입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 입학관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.6202147603034973</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집에 대한 정보를 바탕으로, 일반적으로 고등학교 졸업 후 10년이 경과한 경우 정시 모집에 지원할 수 있는 기회는 제한적입니다. 주요 변경사항 및 지원 가능한 전형을 살펴보면 다음과 같습니다:
+1. **나군 실기/실적(경기실적우수자전형)**:
+   - 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+   - 따라서, 고등학교 졸업 후 10년이 지났다면 이 전형을 통해 지원할 수 있습니다.
+2. **나군 학생부종합(성인학습자전형)**:
+   - 이 전형은 특성화고 등을 졸업한 재직자로 제한됩니다.
+   - 고등학교 졸업 후 10년이 지났다면 일반적으로 이 전형을 통해 지원하기 어렵습니다.
+3. **나군 학생부종합(조기취업형계약학과전형)**:
+   - 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+   - 따라서, 고등학교 졸업 후 10년이 지났다면 이 전형을 통해 지원할 수 있습니다.
+4. **나군 학생부교과(성인학습자전형)**:
+   - 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+   - 따라서, 고등학교 졸업 후 10년이 지났다면 이 전형을 통해 지원할 수 있습니다.
+따라서, 고등학교 졸업 후 10년이 경과한 경우 **나군 실기/실적(경기실적우수자전형)** 또는 **나군 학생부종합(성인학습자전형)**, **나군 학생부교과(성인학습자전형)**를 통해 지원할 수 있습니다. 그러나 이러한 전형들은 특정 조건을 충족해야 하므로 자세한 내용은 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.
+추가적으로, 동의대학교의 정시모집에 대한 최신 정보는 공식 홈페이지에서 확인하실 수 있으니, 해당 사이트를 방문하여 자세한 안내를 받아보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.717962384223938</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부 최초 합격자 발표**: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+   - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+7. **합격자 발표 및 등록금 납부 최초 합격자 등록**: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+   - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+8. **충원 합격자 1차 (인터넷) 발표**: 2024. 02. 14.(수) 09:00
+   - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+9. **충원 합격자 1차 (인터넷) 등록**: 2024. 02. 14.(수) 09:00~16:00
+   - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+10. **충원 합격자 2차 (인터넷) 발표**: 2024. 02. 15.(목) 09:00
+    - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+11. **충원 합격자 2차 (인터넷) 등록**: 2024. 02. 15.(목) 09:00~16:00
+    - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+12. **충원 합격자 3차 이후 (개별 전화 통보) 발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+    - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+13. **충원 합격자 3차 이후 (개별 전화 통보) 등록**: 개별 전화 통보 시 안내
+    - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+이 일정들은 동의대학교가 정시 모집을 진행하는 주요 단계를 포함하고 있으며, 각 단계별로 필요한 서류 제출 및 접수 시한 등을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.947191596031189</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 정시모집 과정을 진행하는 데 필요한 주요 단계를 포함하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9505414366722107</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서는 수능 미응시자도 지원이 가능한 전형으로 "학생부종합(조기취업형계약학과전형)"이 있습니다. 이 전형의 특징은 다음과 같습니다:
+1. **지원 자격**: 고교 졸업(예정)자, 검정고시 출신자 또는 외국고교 졸업(예정)자가 가능합니다.
+2. **제출서류**:
+   - 고교 졸업(예정)자는 고교 학교생활기록부 1부를 제출해야 합니다.
+   - 검정고시 출신자는 검정고시 합격증서 사본, 검정고시 성적증명서, 학교생활기록부 대체 서류(제출 여부 선택 가능)를 제출합니다.
+   - 외국고교 졸업(예정)자는 공증받은 외국고교 졸업(예정)증명서, 공증받은 외국고교 성적증명서, 학교생활기록부 대체 서류를 제출해야 합니다.
+3. **전형요소 반영비율**:
+   - 서류 평가: 60%
+   - 면접 평가: 40%
+따라서 수능 미응시자도 이 전형을 통해 지원이 가능합니다. 하지만 다른 전형과 마찬가지로 정확한 지원 자격 및 제출서류는 입학처 웹사이트를 확인하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.5871540904045105</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격 (후보순위)은 36명이었습니다. 이는 최종등록자의 경우입니다.
+만약 전년도 데이터가 필요하다면, 해당 정보가 제공되지 않았으므로 공식 웹사이트인 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.8309366106987</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。建议您访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do）以获取最新的联系方式，包括入学处的联系电话等信息。如果网站上仍然没有相关信息，您可以尝试通过电子邮件或其他在线表单进行咨询。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.4337776899337769</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19:00부터 20일(화) 18시까지는 합격자 발표 및 등록금 납부 충원합격자 3차 이후 (개별 전화 통보) 발표 기간입니다. 이 기간 동안 개별 전화 통보가 이루어집니다. 만약 전화 통화가 되지 않는 경우, 다음과 같은 절차를 따르게 됩니다:
+1. **발표 확인**: 홈페이지에서 개별 조회를 통해 합격 여부를 확인합니다.
+2. **고지서 교부**: 홈페이지에서 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. **등록장소**: 등록금 고지서에 기재된 학교 지정은행으로 등록을 진행합니다.
+따라서, 전화 통화가 되지 않더라도 위의 절차를 통해 합격 여부와 등록 방법을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9121408462524414</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 다음과 같은 서류를 제출해야 합니다:
+1. 고교 학교생활기록부 1부 
+   - ※ 학생부 온라인 제공 동의자는 제출할 필요 없음
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+2. 경력증명서 또는 재직증명서 (필요한 경우)
+   - 4대 보험 가입자: 건강보험자격득실확인서(국민건강보험공단 발급), 국민연금가입증명서, 고용보험자격이력내역서
+   - 창업 및 자영업자: 사업자등록증명원 또는 폐업사실증명원, 소득금액증명원
+   - 1차 산업체 종사자: 국가·지방자치단체가 발급하는 공적증명서
+   - 군 경력자: 주민등록초본(주민등록번호 전체가 기재된 서류)
+3. 검정고시 합격증서 및 성적증명서 (검정고시출신자 또는 외국고교 졸업예정자는 필요)
+   - 1. 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 2. 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+4. 외국고교 졸업(예정)자에 대한 추가 서류 (필요한 경우)
+   - 공증받은 외국고교 졸업(예정)증명서 1부
+   - 공증받은 외국고교 성적증명서 1부
+   - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+5. 기타 필요한 증빙서류
+이러한 서류들은 지원 자격과 관련된 내용을 포함하고 있어야 하며, 원본 또는 공증된 사본을 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.8655189275741577</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+- 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부를 추가로 제출)
+- 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가로 제출
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9300558567047119</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到2024年在普通入学考试（정시모집）中的低收入机会均等招生计划是否会进行选拔。因此，根据现有信息无法确定是否会有此类招生计划。
+为了获取最准确的信息，建议直接访问以下网站查询：
+https://ipsi.deu.ac.kr/main.do
+或者联系学校招生办公室以获得最新的官方通知和确认。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.5751169919967651</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사되지 않고 그대로 반영됩니다.
+수능 최저등급에서 사탐(사회탐구) 2 과목의 평균산출 시 2.5등급이 나온다면, 이는 실제 점수가 해당 등급에 해당하는 점수로 처리됩니다. 즉, 2.5등급은 수능 최저등급 기준에서 인정되는 절사 없이 그대로 반영됩니다.
+따라서, 2.5등급의 경우에도 정확한 점수를 반영하기 위해 그대로 평균산출하여 합격 여부를 판단합니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.8282496333122253</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 합격자 발표 및 등록금 납부
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00~16:00
+   - 내용: 합격자 발표 및 등록금 납부
+3. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+   - 내용: 합격자 발표 및 등록금 납부
+이후에는 개별 전화 통보를 통해 추가 합격자를 발표하고 등록하게 됩니다.
+각 차례의 합격자 발표와 등록은 다음과 같이 이루어집니다:
+- **1차**: 2024. 02. 14.(수) 09:00
+- **2차**: 2024. 02. 15.(목) 09:00~16:00
+- **3차**: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+각 차례의 발표와 등록은 학교 입학 안내 홈페이지를 통해 개별적으로 조회할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.9094340205192566</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도의 정시 모집에 대한 정보를 바탕으로 답변드리겠습니다.
+주어진 데이터에서 e비즈니스학과는 수능 성적 반영 비율이 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 399.40
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차은 17.60
+이 정보만으로는 e비즈니스학과에 정시로 추가 합격 가능 여부를 단정 짓기는 어렵습니다. 그러나 주어진 평균 점수가 399.40이고, 표준 편차가 17.60이라는 것을 고려하면:
+- 평균점수보다 낮은 성적을 가진 지원자들도 있을 수 있습니다.
+- 표준 편차가 상대적으로 크므로, 특정 점수가 정확히 합격 기준이 되지는 않습니다.
+따라서 e비즈니스학과의 경우, 4.6이라는 수능 성적이 평균보다 낮은 점수로 보입니다. 그러나 정시 모집에서는 다양한 요소가 고려되므로, 다음과 같은 사항을 확인해보는 것이 좋습니다:
+1. **전형별 세부 안내**: 각 전형의 세부 기준과 추가 합격 가능성에 대한 정보를 확인하세요.
+2. **면접 및 서류 평가**: 면접이나 서류 평가에서 좋은 성적을 받았다면, 이는 합격 가능성을 높일 수 있습니다.
+3. **경쟁률**: 현재의 경쟁률과 지원자들의 성적 분포를 확인하여 자신의 위치를 파악하세요.
+따라서 4.6이라는 점수만으로 정시로 추가 합격이 가능한지 확답하기는 어렵습니다. 상세한 정보와 전형별 세부 기준을 참고하시고, 입학처의 공식 안내를 확인하는 것이 가장 좋습니다. 
+[입학안내 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하여 자세한 정보를 얻으시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.7899775505065918</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 10.56이며, 충원 합격자는 33명입니다. 지원 인원이 많고 경쟁률이 높습니다.
+평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 326.89이고, 평균 영어 등급은 2.88입니다. 
+등급 5.3의 경우 대략 107점 정도의 점수가 됩니다. 이 점수는 평균보다 약간 낮지만, 경쟁률이 매우 높고 지원 인원이 많기 때문에 최초 합격 가능성은 낮습니다.
+하지만 등급 5.3이라면 일부 지원자들보다는 우위를 가질 수 있으므로, 최소한 후보 순위에서 선발될 가능성이 있습니다. 정확한 확률을 예측하기 위해서는 전체 지원자의 성적 분포와 경쟁률 등을 고려해야 합니다.
+결론적으로, 등급 5.3으로 e비즈니스학과에 최초 합격하는 것은 매우 어렵지만, 후보 순위에서 선발될 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.7869821786880493</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 바탕으로 답변 드리겠습니다. 하지만 정확한 예비합격 가능성 판단을 위해서는 여러 요소들을 고려해야 합니다:
+1. **전형별 평균 점수와 경쟁률**: e비즈니스학과의 전형별 평균 점수와 경쟁률을 확인해보세요. 이 정보를 통해 현재 성적과 비교할 수 있습니다.
+2. **개인 성적**: 국어, 수학, 영어 등 주요 과목의 성적이 중요합니다. 특히 e비즈니스 학과에서는 영어 실력이 요구되므로 영어 점수도 고려해야 합니다.
+3. **전형별 평가 요소**: 
+   - **가군 수능(일반학생전형)**: 수능 100% 반영
+   - **나군 수능(일반학생전형)**: 수능 70%, 실기 30%
+4. **면접 및 서류 평가**: 
+   - 나군 학생부종합(조기취업형계약학과전형)에서는 서류 60%, 면접 40% 반영
+5. **개인 특성**: 공동체역량, 학업역량, 전공적합성 등 개인의 특성이 중요합니다.
+현재 정보만으로는 정확한 예비합격 가능성 판단이 어렵습니다. 하지만 현재 성적이 평균 이상이라면 좋은 기회일 수 있습니다. 
+추가적으로:
+- 입학사정관들의 평가는 중요한 요소입니다.
+- 면접 준비도 철저히 해야 합니다.
+자세한 정보는 입학처 홈페이지나 학교 관계자에게 문의하시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.6914709806442261</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 수능 등급은 상당히 낮은 점수입니다. 동의대학교 간호학과는 경쟁률이 높고, 모집인원도 많지 않은 반면 지원 인원이 매우 많은 편입니다.
+간호학과에 합격 가능성에 대해 고려할 수 있는 요소들은 다음과 같습니다:
+1. **경쟁률**: 간호학과의 경쟁률은 6.59로 높습니다. 이는 지원자가 모집인원보다 훨씬 많은 것을 의미합니다.
+2. **성적 평균 및 표준편차**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48입니다.
+   - 영어 등급의 평균은 2.34이며, 수능 4개 영역 등급의 평균은 3.37입니다.
+3. **성적 분포**:
+   - 지원 인원이 많아서 성적이 낮더라도 일부 합격자가 있을 가능성이 있습니다.
+   - 하지만 3.44라는 점수는 상당히 낮기 때문에, 합격 가능성은 매우 낮다고 볼 수 있습니다.
+4. **추가 요인**:
+   - 학생부 종합 평가, 면접 등 다른 요소들이 중요하게 작용할 수 있지만, 성적이 가장 중요한 기준이므로 이 점수만으로는 합격하기 어렵습니다.
+   - 출결 및 기타 추가적인 개인적 특성도 고려될 수 있습니다.
+따라서 3.44라는 수능 등급으로 동의대학교 간호학과에 합격하는 것은 매우 어려울 것으로 보입니다. 다른 대학이나 전형을 검토해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.7243702411651611</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 수능 영어영역 등급에 해당하는 점수입니다. 위에서 제공된 정보를 바탕으로, 간호학과의 경우 다음과 같은 특징이 있습니다:
+- 모집 인원: 22명
+- 지원 인원: 145명
+- 경쟁률: 6.59
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 357.63
+- 영어 등급의 평균: 1.86
+간호학과는 상당히 높은 경쟁률을 보이고 있으며, 평균적인 수능 점수가 357.63으로 매우 높습니다. 따라서 2.52라는 점수로는 최종 합격하기가 어려울 것으로 예상됩니다.
+하지만 정시 성적이 2.52라면 다음과 같은 방법을 고려해볼 수 있습니다:
+1. **학생부 종합 평가**: 간호학과는 일반적으로 학생부 종합 평가를 중요하게 생각합니다. 따라서 좋은 학생부 자료와 면접 성적이 뛰어나다면 가능성을 열어두어야 합니다.
+2. **면접 준비**: 면접에서는 지원동기, 학업계획, 전공적합성 등을 잘 준비해야 합니다. 특히 간호학과는 인간을 돌보는 직업이므로 배려심과 책임감을 강조하는 것이 중요합니다.
+3. **추가 자격증이나 활동**: 관련 자격증 취득 또는 봉사활동, 진로체험 등 추가적인 경력을 준비해볼 수 있습니다.
+4. **다른 학과도 고려**: 간호학과 외에도 지원 가능한 다른 학과를 찾아보는 것도 좋습니다. 예를 들어, 의료보건생활대학의 다른 학과나 공과대학의 학과 등이 있을 수 있습니다.
+결론적으로 2.52라는 점수로는 간호학과 최종 합격은 어렵지만, 철저한 준비와 노력으로 가능성을 열어두어야 합니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.80485999584198</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 평균적인 성적을 가진 경우에도 간호학과에 합격하는 것은 가능하지만, 확률은 높지 않을 것입니다. 이유는 다음과 같습니다:
+1. **간호학과의 경쟁률**: 간호학과는 일반적으로 매우 높은 경쟁률을 보입니다. 특히 간호학과는 실기와 면접이 중요하기 때문에, 단순히 성적만으로 합격하는 것은 어렵습니다.
+2. **실기 및 면접 평가**: 간호학과에서는 실기와 면접에서 좋은 점수를 받는 것이 중요합니다. 특히 실습 능력, 의사소통 능력 등이 평가됩니다.
+3. **추천서나 특별한 경력**: 특정 학교나 프로그램에서는 추천서나 특별한 경력을 가진 지원자에게 더 많은 기회를 주기도 합니다.
+4. **학생부 및 기타 자료**: 학생부, 활동기록 등이 중요합니다. 특히 간호 관련 활동이나 봉사활동 경험은 유리하게 작용할 수 있습니다.
+5. **수능 성적**: 일부 대학에서는 수능 성적이 중요한 요소로 작용하기 때문에, 좋은 수능 점수를 보유하고 있다면 이 또한 도움이 될 수 있습니다.
+따라서 3.7의 성적만으로는 어렵지만, 실기와 면접에서 뛰어난 성적을 받고, 학생부나 활동 기록 등에서 좋은 평가를 받으면 가능성을 높일 수 있습니다. 
+추천되는 조치:
+- **실기 및 면접 준비**: 충분한 시간을 들여 실습 능력과 의사소통 능력을 향상시키세요.
+- **활동 기록 강화**: 간호 관련 활동이나 봉사활동 경험을 강조하세요.
+- **추천서 작성**: 가능하다면 선생님 또는 전문가의 추천서를 받으세요.
+이런 준비를 통해 합격 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.6333181858062744</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시 모집인원과 지원 인원을 살펴보면 다음과 같습니다:
+- **모집 인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 6.59
+최종등록자들의 성적 분포를 보면, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 353.48이며, 표준 편차는 4.66입니다.
+정시 성적이 2.58인 경우, 이 점수를 표준 변환 점수로 환산하면 대략 100점대 중반에서 낮은 100점대의 점수가 됩니다. 이는 평균보다 상당히 낮은 수치입니다.
+간호학과의 경쟁률이 매우 높으며, 표준 변환 점수 합의 평균이 353.48이고 표준 편차가 4.66인 것을 고려할 때, 정시 성적이 2.58인 경우 합격하기는 어려울 것으로 보입니다.
+하지만 최종 등록자들의 성적 분포를 보면, 점수가 상당히 넓게 퍼져 있으며 표준 편차가 크므로, 매우 높은 점수를 받지 않은 지원자들 중에서도 합격 사례가 있을 수 있습니다. 따라서, 정확한 예측은 불가능하지만, 낮은 성적을 가진 지원자는 경쟁률과 성적 분포를 고려하여 합격 가능성은 매우 낮다고 판단할 수 있습니다.
+결론적으로, 2.58이라는 점수로는 간호학과에 정시 전형으로 합격하기 어려울 것으로 보입니다. 그러나 최종 등록자들의 성적 분포를 고려하면, 매우 높은 경쟁률 속에서 낮은 점수라도 특별한 이유가 있다면 합격 가능성은 열려 있다고 할 수 있습니다.
+추천되는 조치는 다음과 같습니다:
+1. 추가 지원 자료 준비 (예: 자기소개서, 추천서 등)
+2. 면접 준비
+3. 다른 대학이나 전형을 고려해보기
+더 자세한 정보나 도움이 필요하시다면, 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7185394167900085</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2024년도 입시 정보를 바탕으로 게임공학과에 대한 모집 인원과 지원 인원 등을 확인해보겠습니다.
+- **단과대학**: ICT융합공과대학
+- **모집단위**: 게임공학과
+- **모집인원**: 3명
+- **지원인원**: 16명
+- **경쟁률**: 5.33
+이 정보를 바탕으로, 경쟁률이 높아 보입니다. 하지만 최종 합격자는 수능 점수와 서류 평가 등을 종합적으로 고려하여 선정됩니다.
+**추천사항:**
+1. **수능 성적**: 최고의 수능 성적을 준비하세요.
+2. **서류 준비**: 철저한 서류 준비를 하세요. 특히 학교생활기록부와 창의적 체험활동 등이 중요합니다.
+3. **면접 준비**: 면접 질문 공통문항에 대해 잘 준비해두세요.
+입학사정관들이 다양한 요소들을 종합적으로 평가하므로, 모든 부분에서 최선을 다하는 것이 중요합니다. 자세한 정보는 [입학안내 홈페이지](http://ipsi.deu.ac.kr)를 참고하시거나 문의하시면 도움이 될 것입니다.
+더 궁금하신 점 있으시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.7419062852859497</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 수능 최종등록자의 경쟁률이 5.33이며, 충원 합격자는 3명입니다. 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 424.05이고, 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 424.05입니다.
+당신의 수능 성적이 4.16정도라면, 이는 대략 390-400 정도의 표준 변환 점수를 의미할 것입니다. 이 점수는 평균보다 약간 낮습니다.
+경쟁률이 5.33이고 충원 합격자가 3명이라는 점을 고려하면, 당신의 성적은 충원 합격자들 중에서 상위권에 속하지 않을 가능성이 높습니다. 그러나 정확한 확률을 예측하기 위해서는:
+1. **당신의 개인적인 성적** : 4.16정도의 수능 점수를 가지고 있는 경우, 실제 표준 변환 점수가 어느 정도인지 확인해야 합니다.
+2. **기타 평가 요소** : 학생부 종합 평가, 면접 등 다른 평가 항목에서 좋은 성적을 받는다면 추가적인 합격 가능성은 높아질 수 있습니다.
+일반적으로, 경쟁률이 5:1인 경우, 상위 20% 내외의 지원자들이 충원 합격자를 포함한 후보 순위에 오르게 됩니다. 따라서 당신의 성적을 고려하면, 추가 합격 가능성은 낮지만, 학생부 종합 평가 등 다른 요소에서 우수한 점수를 받는다면 3-5등까지의 후보 순위에 오르는 것은 가능할 수 있습니다.
+결론적으로, 당신의 성적만으로는 충원 합격을 확신하기 어렵습니다. 그러나 추가적인 평가 항목에서 좋은 성적을 받는다면, 3-5등까지의 후보 순위에 오를 가능성은 있습니다. 정확한 예측은 입학사정관들의 판단과 개인별 점수 분포에 따라 달라질 수 있으므로, 최선을 다해 지원하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.7847955226898193</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동일 학과의 경우, 경영정보학과의 최종 등록자의 평균 영어 등급이 3.25였으며 표준 편차가 0.82입니다. 또한, 해당 학과의 지원자들의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균은 427.00이고 표준 편차는 11.25였습니다.
+당신이 경영정보학과에 지원하고, 성적 3.75를 가지고 있다면 이는 상대적으로 좋은 성적입니다. 하지만 최종 등록자들의 평균 점수가 높기 때문에, 경쟁률이 높을 가능성이 있습니다.
+결론적으로, 성적이 3.75라면 최초등록자로 선발될 가능성은 있지만, 확실한 것은 아닙니다. 다른 지원자의 성적과 학교에서 설정하는 기준에 따라 결정될 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화 문의를 통해 확인해보시는 것이 좋습니다.
+추가적으로, 경영정보학과의 경우 2024년도 모집인원이 39명이고 지원자가 168명으로, 경쟁률은 약 4.3:1입니다. 따라서 성적이 높더라도 많은 지원자들이 경쟁하기 때문에 확실한 보장은 없습니다.
+결론적으로, 당신의 성적은 좋은 편이지만, 최종 등록자로 선발될 가능성은 있으나 확실하지 않습니다. 추가적인 정보와 지원 전략을 마련하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.7759940624237061</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 모집단위의 경쟁률과 평균 점수를 참조하여 답변드리겠습니다.
+- **게임공학과**:
+  - 최종등록자: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.05
+  - 최초합격자: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.77
+- **영화학과**:
+  - 최종등록자: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 286.77
+  - 최초합격자: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 303.80
+- **패션디자인학과**:
+  - 최종등록자: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 309.71
+  - 최초합격자: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 312.33
+이러한 데이터를 바탕으로 경영정보학과의 정시 성적이 4.2라면, 이는 상대적으로 높은 점수가 아닙니다. 최초합격자들의 평균 점수와 비교하면, 경쟁률이 높은 학과에서는 4.2점으로는 최초합격에 어려움을 겪을 수 있습니다.
+하지만 정확한 가능성을 판단하기 위해서는:
+1. **모집단위의 경쟁률**: 경영정보학과의 경쟁률을 확인해야 합니다.
+2. **최종등록자와 최초합격자의 점수 차이**: 이 차이는 학과별로 다르므로, 해당 학과의 데이터를 참조해야 합니다.
+따라서, 경영정보학과의 정시 성적이 4.2라면, 최초합격에 어려움을 겪을 가능성이 높지만, 최종등록자들의 점수가 어느 정도인지 확인하여 더 정확한 판단이 필요합니다. 
+추가적으로, 학생부와 면접 등 다른 평가 요소도 고려해야 하므로, 전반적인 자질과 적합성을 종합적으로 판단하는 것이 중요합니다.
+더 궁금하신 점이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하거나 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.7457548975944519</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 최종등록자의 평균 수능 4개 영역 (가산점 포함) 표준 변환 점수 합은 416.53으로, 표준 편차는 7.13입니다. 이와 비교해보면:
+- 평균: 416.53
+- 표준 편차: 7.13
+정시 성적이 5.33인 경우, 이 점수는 수능 4개 영역 (가산점 포함) 표준 변환 점수가 아닌 일반적인 수능 점수를 의미합니다. 
+일반적으로 경영정보학과의 경쟁률은 높으므로, 정시 성적이 5.33이라면 합격 가능성은 낮을 것으로 예상됩니다. 평균점수와 비교해보면:
+- 평균: 416.53
+- 정시 성적: 5.33
+정시 성적이 평균보다 훨씬 낮기 때문에, 합격 가능성은 매우 낮습니다.
+하지만 최종합격자는 수능 점수뿐만 아니라 다른 요소들(예를 들어 면접 등)도 고려되기 때문에, 완전히 배제할 수는 없습니다. 
+결론적으로 정시 성적이 5.33이라면 경영정보학과에 합격하기는 어렵다고 볼 수 있습니다. 하지만 최종합격자는 여러 요소를 종합적으로 판단하므로, 모든 가능성은 열려 있다고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.799380362033844</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부의 경우, 수능(일반학생전형) 최초합격자의 성적 분포를 살펴보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 312.33
+- 영어 등급의 평균: 3.33
+- 수능 4개 영역 등급의 평균: 4.31
+당신이 언급한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 330점, 영어 등급 3.33)은 이 기준을 살펴보면 약간 높습니다.
+특히, 바이오응용공학부는 과학 분야에 대한 강한 요구가 있으므로 수능 과학 영역의 성적이 중요합니다. 만약 수능 과학 영역에서 4등급 이상을 받았다면, 이 점수는 충분히 경쟁력을 갖추고 있을 것입니다.
+하지만 최초합격자들의 평균 점수가 높기 때문에, 경쟁률이 높은 학과에서는 여전히 높은 수준의 성적이 필요할 수 있습니다. 따라서 다음과 같은 조언을 드립니다:
+1. **수능 과학 영역 성적 확인**: 만약 과학 영역에서 4등급 이상을 받았다면, 이 점수는 매우 유리합니다.
+2. **전반적인 성적 평균**: 현재의 국어 + 수학 + 탐구(2개) 표준 변환 점수 합이 최초합격자들의 평균보다 약간 높으므로, 이 부분에서도 경쟁력을 갖추고 있습니다.
+3. **영어 성적**: 영어 등급 3.33은 중간 수준입니다. 다른 학과와 비교했을 때는 상대적으로 낮지만, 바이오응용공학부의 경우 과학 분야가 더 중요하므로 이 부분에서는 크게 문제가 되지 않을 것입니다.
+결론적으로, 현재의 성적은 바이오응용공학부 최초등록자로 충분히 가능할 것으로 보입니다. 하지만 경쟁률이 높기 때문에, 다른 학과와 비교했을 때 더 높은 점수를 받는 것이 유리할 수 있습니다.
+추가적으로, 지원 전에 동의대학교 입학처 웹사이트나 전화로 상세한 정보를 확인하시거나, 입학상담을 받아보시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.8061118125915527</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로 답변 드리겠습니다.
+방사선학과는 공과대학의 학과로, 일반적으로 공학 계열의 모집단위입니다. 성적 등급이 4.4라면, 이는 대체로 좋은 성적을 의미합니다만, 정확한 입학 가능성을 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **모집인원과 지원자 수**: 방사선학과의 모집인원과 지원자의 수를 확인해야 합니다. 경쟁률이 높다면, 좋은 성적을 가지고 있어도 충분한 확률로 합격할 수는 없습니다.
+2. **성적 반영 비율**: 일반학생전형에서 수능 점수와 등급이 100% 반영되는 것으로 보입니다. 따라서 수능 성적이 중요합니다.
+3. **등급 변환**: 현재의 등급 4.4를 방사선학과가 요구하는 최소 등급으로 변환해야 합니다. 대체로 공과대학에서는 B+ 이상을 요구하나, 정확한 기준은 학교 홈페이지에서 확인해야 합니다.
+4. **전형별 특성**: 일반학생전형의 경우 수능 성적이 주요 평가 요인입니다. 따라서 수능 점수와 등급이 중요합니다.
+5. **추천서 및 자기소개서**: 일부 전형에서는 추천서나 자기소개서 등의 서류평가도 이루어질 수 있으므로, 이 부분을 준비하는 것도 필요할 수 있습니다.
+6. **면접**: 방사선학과는 면접이 포함될 수도 있으니, 면접 준비를 미리 해두는 것이 좋습니다.
+현재의 성적 4.4 등급은 좋은 성적이지만, 방사선학과에 입학하기 위해서는 수능 점수와 등급도 고려해야 합니다. 정확한 정보를 얻기 위해서는 학교 홈페이지나 입학처에 문의하시는 것이 좋습니다.
+추가적으로, 2024학년도 입시 관련 자세한 내용은 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6683614253997803</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 경쟁률이 7.20으로 매우 높습니다(모집인원 5명, 지원인원 36명). 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 341.62로, 표준 편차는 9.80입니다.
+당신의 점수인 2.66 등급을 기준으로:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 대략 315.47 정도 됩니다.
+- 이 점수는 평균보다 약간 낮습니다.
+따라서, 방사선학과 정시로 지원한다면 위험할 수 있습니다. 경쟁률이 높고, 평균점수가 비교적 높기 때문에 더 높은 점수를 받는 것이 유리합니다. 
+추천사항:
+1. 다른 학과를 고려해보세요.
+2. 추가 공부를 통해 점수를 향상시키세요.
+3. 전형 요소 중 면접이나 서류 평가에서 좋은 성적을 얻으시기 바랍니다.
+결국, 지원 여부는 개인의 상황과 목표에 따라 결정해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7604668140411377</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 평균 등급은 높지 않은 편이지만, 여전히 좋은 성적입니다. 경찰행정학과의 경우, 정원외 동점자 처리 기준에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균 상위자를 우선적으로 선발합니다.
+당신의 3.66이라는 성적은 이 기준을 충족할 가능성이 있습니다. 그러나 정확한 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. **전반적인 경쟁률**: 현재 지원자의 평균 등급과 비교해야 합니다.
+2. **동점자 처리 기준**: 동점자가 많다면, 성적이 높아야 합격할 확률이 높아집니다.
+3. **학생부 및 기타 서류 평가**: 학생부 교과성적 외에 면접이나 서류평가 등에서 좋은 점수를 받는 것이 중요합니다.
+따라서, 정확한 답변을 위해서는:
+1. 해당 대학의 2024년도 입시 안내를 확인해보세요.
+2. 동점자 처리 기준과 평균 성적 등을 파악하세요.
+3. 학생부 및 기타 서류 평가에서 좋은 점수를 받을 수 있는지 준비하세요.
+만약 자세한 정보나 추가 도움이 필요하다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.8152353167533875</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수를 요구하는 경우가 많습니다. 하지만 정시 일반학생 전형에서 예비 합격자가 발표되면, 실제로 해당 학교에 진학할 수 있는 가능성이 있습니다.
+다음 사항들을 고려해보세요:
+1. **전형 유형**: 가군, 나군, 다군 등에 따라 수능 점수와 다른 요소들이 다르게 반영될 수 있으므로, 전형 유형을 확인하세요.
+2. **모집단위**: 모집단위별로 모집인원과 경쟁률이 다르므로, 해당 모집단위의 상황을 파악해보세요.
+3. **수능 점수**: 국어, 수학, 영어 등급 및 탐구 과목의 표준점수를 확인하고, 이들이 합격선에 미치는 영향을 고려하세요.
+4. **추가 가산점**: 일부 모집단위에서는 수학(미적분 또는 기하) 응시자에게 10% 가산점을 주므로, 이 점수도 포함시키세요.
+예비 합격자는 최종 합격자가 발표되기 전까지는 확정되지 않으므로, 정확한 가능성은 알 수 없습니다. 하지만 예비 합격자 명단에 이름이 올랐다는 것은 좋은 신호입니다. 
+추가적으로, 입학사정관들이 서류를 심사하거나 면접을 실시하는 경우도 있으니, 해당 절차에서 잘 준비해보세요.
+더 자세한 정보나 도움이 필요하시면 학교의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.7896705865859985</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학과의 모집인원, 지원 인원 및 경쟁률을 보면 다음과 같습니다:
+- 모집 인원: 7명
+- 지원 인원: 40명
+- 경쟁률: 5.71
+평균 성적에 대한 정보는 제공되지 않았지만, 이 학과의 경쟁률이 5.71이라는 점을 고려하면 다음과 같은 추정치가 있을 수 있습니다:
+1. 안정적인 합격을 위해서는 평균 이상의 성적이 필요할 것으로 보입니다.
+2. 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균인 315.78 정도를 목표로 설정하면 안정적인 합격 가능성이 높을 것으로 예상됩니다.
+3. 경쟁률이 높아지면 최소 320점 이상을 추천합니다.
+참고로, 이는 추정치이며 실제 성적은 입학사정관의 평가와 지원자의 전반적인 자질 등을 고려하여 결정됩니다. 따라서 정확한 예상 점수를 위해서는 동의대학교 입학사정관팀에 문의하거나, 제공된 정보를 바탕으로 추정치를 설정하는 것이 좋습니다.
+마지막으로, 2024년도 동의대학교 법경찰행정학과의 모집인원이 7명이고 지원 인원이 40명이라는 점을 고려하면 경쟁률이 높아 합격하기 위해서는 평균 이상의 성적이 필요할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7937817573547363</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과에 대한 정보를 확인해보겠습니다.
+1. **모집단위 및 모집인원**: 
+   - 단과대학: 인문사회과학대학
+   - 계열: 인문사회
+   - 모집단위: 보육가정상담학과 (아동학과로 변경)
+   - 모집인원: 2명
+2. **최종등록자 성적 분석**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.77
+   - 영어 등급의 평균: 4.33
+   - 수능 4개 영역 등급의 평균: 4.87
+3. **성적 산출방법**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+4. **정시 성적 등급 평균**: 
+   - 정시 성적 등급이 5.33인 경우, 이는 대략 107 점 정도의 표준점수가 됩니다.
+**결론:**
+- 현재 제공된 정보만으로 판단하면, 정시 성적이 5.33인 경우 동의대학교 보육가정상담학과(아동학과)에 합격 가능성은 낮습니다.
+- 정시 성적 등급이 평균보다 높지 않기 때문에 경쟁률이 높은 모집단위에서 합격하기는 어렵습니다.
+**추천 조치:**
+1. 다른 모집단위나 전형을 고려해보세요.
+2. 추가적으로 수능 공부를 강화하여 성적을 향상시키는 것이 좋습니다.
+3. 동의대학교의 다른 학과나 전형에 대해 더 자세히 알아보시기 바랍니다.
+더 궁금하신 점이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.8152201175689697</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 충원 합격자 발표 및 등록 일정이 다음과 같습니다:
+- **충원 합격자 3차 발표**: 2024. 02. 15.(목) 19:00부터
+- **충원 합격자 3차 등록**: 개별 전화 통보 시 안내
+이 정보만으로는 정확한 합격 가능성 판단하기 어렵습니다. 하지만 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **경쟁률과 지원자 수**: 충원 합격자 발표 일정이 2024년 2월 중순이며, 이전에 여러 차례의 합격자 발표가 있었음을 감안하면, 이미 많은 학생들이 합격했을 가능성이 있습니다. 따라서 남은 자리가 많지 않을 수 있습니다.
+2. **개별 전화 통보**: 3차 충원 합격자는 개별 전화 통보를 통해 알림이 온다는 점에서, 이전에 예비로 선정된 경우에도 최종 합격 가능성은 높습니다.
+3. **성적과 평가 요소**: 동의대학교는 수능 성적이 중요한 요인으로 작용합니다. 따라서 수능 성적이 높고, 서류평가와 면접 등 다른 평가 요소에서도 우수한 점수를 받았다면 합격 가능성은 높을 것입니다.
+4. **전형별 특성**: 동의대학교는 다양한 전형이 있으며, 각 전형마다 수능 성적과 서류 평가 비율이 다릅니다. 예비 12번으로 선정된 경우, 해당 전형에서 우수한 성적이었다면 합격 가능성은 높습니다.
+결론적으로, 이미 예비로 선정되었으므로 최종 합격 가능성은 상당히 높다고 볼 수 있습니다. 하지만 정확한 확률을 알기 위해서는 동의대학교 입학처 웹사이트나 전화로 확인하는 것이 가장 좋습니다. 
+추가 정보를 얻고자 한다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 직접 동의대학교 입학처에 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.9430136680603027</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 등급 점수는 상당히 높은 수준입니다. 한국의 대학입시에서 A+를 의미하는 4.0을 기준으로 하면, 4.75는 매우 우수한 성적입니다.
+유아교육학과에 지원할 때 4.75라는 등급 점수로는 상대적으로 유리한 입니다. 그러나 유아교육학과의 경쟁률과 모집인원을 고려하면 여전히 높은 수준의 경쟁이 있을 것입니다.
+다음은 몇 가지 고려사항입니다:
+1. **경쟁률**: 유아교육학과의 경쟁률을 확인해야 합니다. 경쟁률이 높다면, 4.75라는 점수는 큰 도움이 될 수 있습니다.
+2. **모집인원**: 모집인원이 적으면 더 많은 지원자가 있어야 하므로, 4.75로 충분히 합격할 가능성은 있지만 확실하지 않습니다.
+3. **전형요소**: 다른 전형 요소들(면접 성적, 서류 평가 등)도 중요합니다. 이 부분에서 좋은 점수를 받는 것이 필요할 수 있습니다.
+따라서 4.75라는 등급 점수로 유아교육학과에 지원한다면 큰 기회는 될 것입니다. 그러나 최종 합격 여부는 경쟁률, 모집인원, 그리고 다른 평가 요소들까지 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.7996768951416016</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 경우, 정시모집군은 '나'군에 속하며, 해당 단과대학의 지원자들의 성적 분포를 보면 다음과 같은 특징들이 있습니다:
+1. **경쟁률 및 모집인원**: 2024년도 보육가정상담학과는 경쟁률이 낮아 보입니다 (9명 지원 중 3명 충원). 이는 합격 가능성에 긍정적인 요인이 될 수 있습니다.
+2. **성적 분포**:
+   - **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 257.00
+   - **영어 등급의 평균**: 5.00
+   - **수능 4개 영역 등급의 평균**: 6.12
+3. **성적 비교**:
+   - 당신의 학생부종합 평가 점수가 4.16입니다.
+   - 보육가정상담학과의 수능 4개 영역 등급의 평균은 6.12로, 이는 당신의 성적이 상대적으로 낮습니다.
+4. **전형 요소**:
+   - 일반학생전형에서는 학생부종합 평가를 주요하게 고려합니다.
+   - 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 평가됩니다.
+5. **추천 사항**:
+   - **서류 준비**: 철저한 서류 준비와 진솔한 자기소개서 작성은 중요합니다.
+   - **면접 준비**: 면접에서도 학업역량과 전공적합성을 잘 보여줄 수 있도록 준비해야 합니다.
+6. **결론**:
+   - 당신의 성적이 상대적으로 낮지만, 서류와 면접에서 좋은 평가를 받는다면 충분히 합격 가능성은 있습니다.
+   - 동의대학교의 경우, 서류와 면접이 중요한 역할을 하므로, 이 부분에 집중하여 준비하는 것이 중요합니다.
+추합까지 고려하면, 성적만으로는 낮지만, 다른 평가 요소에서 좋은 점수를 받으면 합격 가능성은 높아질 수 있습니다. 따라서 서류와 면접 준비에 더 많은 시간을 투자하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.6668410301208496</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시 모집군 다군으로 운영됩니다. 이 학과의 입학 경쟁률과 합격 기준을 확인하기 위해서는 해당 학과의 최종 등록자들의 성적 데이터를 살펴보는 것이 중요합니다.
+주요 정보:
+1. **모집단위 및 모집인원**: 소프트웨어융합학과는 다군 수능(일반학생전형)으로 모집되며, 2024년도에는 60명을 모집하였습니다.
+2. **최종 등록자 성적 데이터**:
+   - 국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+   - 영어 등급의 평균: 3.77
+   - 수능 4개 영역 등급의 평균: 4.49
+이러한 데이터를 바탕으로, 소프트웨어융합학과에 정시로 들어가기 위해서는 다음과 같은 점수와 등급을 갖추어야 할 것으로 추정할 수 있습니다:
+- **국어 + 수학 + 탐구 (가산점 포함) 표준 변환 점수 합**: 평균 317.87 정도를 목표로 해야 합니다.
+- **영어 등급**: 평균 3.77 이상을 받아야 합니다.
+- **수능 4개 영역 등급**: 평균 4.49 이상을 받아야 합니다.
+이러한 기준은 단순 예측이며, 실제 경쟁률과 입학 기준 점수가 변동될 수 있으므로, 최종적인 합격 가능성은 정확한 데이터와 분석을 통해 확인해야 합니다. 또한, 면접 성적이나 서류 평가 등 다른 요소들도 중요한 역할을 하기 때문에, 전반적인 준비를 철저히 해야 합니다.
+추가적으로, 입학사정관의 판단과 지원자의 전반적인 경력 및 활동도 고려되기 때문에, 가능한 한 다양한 경험과 활동을 쌓는 것이 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.6050083041191101</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 반영됩니다. 특히 서류 평가는 공동체역량, 학업역량, 전공적합성 등 세 가지 영역에서 이루어지며, 각 영역별로 1등급부터 5등급까지의 점수를 받을 수 있습니다.
+**서류 평가 내용:**
+- **공동체역량:** 협업능력, 학교폭력 여부 등
+- **학업역량:** 학업태도 및 성취, 출결상황 등
+- **전공적합성:** 지원 전공 관련 활동과 경험, 학업의지 등
+**면접 평가 내용:**
+- **문제해결능력:** 학업 문제에 대한 원인 탐색과 해결 방안 마련 및 노력
+- **진로정보 탐색능력:** 지원 전공에 대한 관심과 이해, 진로 탐색 활동을 통한 성장과정과 결과
+따라서, 서류와 면접 모두 중요하며, 특히 세특 내용은 서류 평가에서 중요한 역할을 합니다. 따라서 세특 내용을 충분히 준비하고, 실제 경험과 노력에 대한 구체적인 사례를 포함시켜야 합니다.
+**서류 준비 방법:**
+1. **학교생활기록부:** 정확하게 작성되어 있어야 하며, 학교폭력 여부와 관련된 부분은 주의해야 합니다.
+2. **진로 탐색 활동:** 지원 전공과 직접적으로 연관된 활동을 강조하고, 그 결과를 구체적으로 기재해야 합니다.
+3. **학업 성취:** 수업 참여와 성적 향상에 대한 내용을 포함시켜야 합니다.
+**주의사항:**
+- **과장된 내용 피하기:** 과장된 내용이나 학교 밖에서의 경험을 과도하게 기재하지 않도록 주의해야 합니다.
+- **실제 활동 기재:** 실제 참여한 활동과 성취를 구체적으로 기재하여 서류와 면접에서 일관성을 유지해야 합니다.
+따라서, 소프트웨어융합학과 지원 시에는 세특 내용을 충분히 준비하고, 실제 경험과 노력에 대한 구체적인 사례를 포함시켜야 합니다. 이를 통해 서류 평가에서도 좋은 점수를 받을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.5961987972259521</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프수어공학부의 경우, 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다 (상세 내용을 확인하기 위해 위에서 제공된 정보 중 해당 부분을 찾아볼 수 있습니다). 
+현재 제시된 성적이 4.08이라면, 이는 약간 낮습니다. 하지만 최초합격자의 평균이 4.12이므로, 경쟁률과 지원 인원 등을 고려할 때 여전히 가능성이 있습니다.
+다음은 몇 가지 고려사항입니다:
+1. **경쟁률**: 최초합격자 중에서 3명만 선발되었으므로 경쟁률이 높습니다.
+2. **성적 편차**: 평균보다 약간 낮더라도, 표준편차가 0.32라는 점을 고려하면 성적이 상대적으로 높은 지원자들 사이에서 경쟁력을 갖추고 있을 수 있습니다.
+3. **전반적인 성적 분포**: 평균이 4.12이지만, 일부 학생들의 성적이 더 낮거나 높을 수 있으므로, 4.08의 성적도 충분히 고려될 수 있습니다.
+따라서, 4.08이라는 성적만으로는 확실한 보장은 없지만, 경쟁력을 갖추고 있는 것으로 판단됩니다. 
+**추천 사항:**
+1. **추가 지원**: 다른 학교나 전공에 추가 지원을 고려해보세요.
+2. **자기소개서 및 면접 준비**: 자기소개서와 면접에서 자신의 강점을 잘 표현하고, 소프트웨어공학과에 대한 열정을 보여주는 것이 중요합니다.
+더 자세한 정보나 추가 지원 전략이 필요하시다면, 동의대학교 입학처 웹사이트 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 학교 관계자에게 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8827545642852783</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과의 경우, 정시 모집군이 다군(일반학생전형)으로 변경되었습니다. 이 전형에서 수능 반영 영역은 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 등 상위 3개 영역을 반영하며, 가산점은 수학(미적분 또는 기하) 응시자에게 수학 표준점수의 10%가 추가 됩니다.
+주어진 데이터를 바탕으로 평균 5등급의 영어 점수가 107이므로, 이는 다음과 같은 점수를 얻을 수 있습니다:
+- 국어와 수학(미적분 또는 기하)은 각각 표준점수로 가정합니다.
+- 탐구 영역은 평균 등급으로 4등급을 가정합니다.
+이 경우, 평균적인 점수가 다음과 같을 것입니다:
+- 국어: 100 (표준점수)
+- 수학(미적분 또는 기하): 108 (표준점수)
+- 영어: 107
+- 탐구: 4등급 (107)
+따라서, 평균적인 점수가 다음과 같을 것입니다:
+100 + 108 + 107 + 107 = 422
+수학(미적분 또는 기하) 응시자에게 수학 표준점수의 10%가 추가되므로, 최종 점수는 다음과 같습니다:
+422 + (108 * 0.1) = 423.08
+따라서, 평균 5등급으로 소프트웨어융합학과에 지원하는 것은 가능하지만, 경쟁률이 높아 충원 합격을 확신할 수는 없습니다. 실제 입시 결과와 경쟁률 등을 고려하여 결정해야 합니다.
+추가적으로, 지원자의 개인적인 성적 및 전반적인 평점을 고려하여 최종 판단을 내리는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.6548110246658325</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 진학하기는 쉽지 않을 것 같습니다.
+다음은 이유와 참고사항입니다:
+1. **신소재공학과 모집인원 및 지원자 수**: 
+   - 신소재공학과는 2024년도에 모집 인원이 몇 명인지 확인해야 합니다.
+   - 지원자가 많을 경우 경쟁률이 높아진다는 점을 고려해야 합니다.
+2. **성적 평균 및 표준 편차**:
+   - 예를 들어, 2024학년도 신소재공학과의 최종 등록자들의 성적 평균은 6.30이고, 표준 편차는 1.1입니다.
+   - 이와 비교하면 4.28이라는 점수는 상대적으로 낮습니다.
+3. **전형방법 및 반영 영역**:
+   - 수능 성적과 탐구 과목 등급이 주요하게 반영됩니다.
+   - 신소재공학과의 경우, 국어, 수학, 영어, 탐구 과목 등급이 각 25%씩 반영되므로, 이들 영역에서 높은 점수를 받는 것이 중요합니다.
+4. **추천 전략**:
+   - 다른 모집단위나 학과를 고려해 볼 수 있습니다.
+   - 지원자의 개인적 특성과 관심 분야에 맞는 학과를 선택하는 것이 좋습니다.
+   - 추가적으로 실기 시험이나 면접 등에서 좋은 성적을 받는 것도 도움이 될 수 있습니다.
+결론적으로, 4.28이라는 점수로 신소재공학과에 진학하기는 어렵지만, 다른 학과나 전형 방식을 고려해 볼 만합니다. 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 상담실에서 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.7422732710838318</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능(일반학생전형)에서는 자기소개서가 필요하지 않습니다. 
+수능(일반학생전형)의 전형요소 반영비율은 다음과 같습니다:
+- 가군 수능 (일반학생전형): 수능 100%, 실기 0%
+- 가군 실기/실적 (일반학생전형): 수능 30%, 실기 70%
+따라서, 자기소개서는 포함되지 않습니다. 지원을 위해서는 주요 서류만 제출하면 됩니다:
+1. 고교 졸업(예정)자인 경우: 학생부 온라인 제공 동의자가 아니면 학생부를 제출해야 합니다.
+2. 검정고시 출신자 또는 외국고교 졸업(예정)자는 해당 증명서를 제출합니다.
+자기소개서가 필요 없는 이유는 수능 성적이 가장 큰 비중을 차지하기 때문입니다. 따라서 수능 점수와 학생부 등록금 납부 등을 잘 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.6419593095779419</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 표준점수를 가지고 추가모집에 지원할 경우, 가능성을 고려해볼 수 있습니다만, 확실한 답변을 위해서는 몇 가지 정보가 필요합니다:
+1. **지원하고자 하는 단과대학 및 모집단위**: 어떤 학과와 모집단위를 목표로 하고 있는지 확인해야 합니다.
+2. **모집인원과 지원 인원**: 해당 단과대학 및 모집단위의 4학년도 최종 등록자의 모집인원과 지원 인원을 파악해야 합니다. 이 정보는 경쟁률을 계산하는데 중요합니다.
+3. **경쟁률**: 현재의 경쟁률이 어느 수준인지 확인해야 합니다. 예를 들어, 경쟁률이 1:2라면 4.5라는 점수로 충분히 합격할 수 있지만, 경쟁률이 1:5 이상이라면 더 높은 점수가 필요할 수 있습니다.
+4. **가산점**: 해당 모집단위에 가산점이 있는지 확인해야 합니다. 예를 들어, 공과대학이나 ICT융합공과대학의 경우 수학(미적분 또는 기하) 응시자에게 10%의 가산점을 부여하는 등의 특별한 조건이 있을 수 있습니다.
+5. **기타 평가 요소**: 일부 학과에서는 면접이나 서류평가 등 다른 평가 요소를 통해 지원자를 선발하기도 합니다. 이 경우, 4.5라는 점수만으로는 충분하지 않을 수도 있습니다.
+이러한 정보들을 종합적으로 고려하여 추가모집에 지원하는 것이 좋습니다. 필요하다면 대학의 입학처나 관련 홈페이지를 참조하거나 직접 문의해보시는 것도 도움이 될 것입니다. 
+[https://ipsi.deu.ac.kr/main.do](http://https://ipsi.deu.ac.kr/main.do) 이 링크를 통해 더 자세한 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8438114523887634</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교에서 신소재공학부가 신설되어 신소재공학과와 고분자나노공학과로 분리되었습니다. 하지만, 2023년도에는 신소재공학부가 존재했기 때문에 그 때의 등급을 참고하겠습니다.
+2023년도 동의대학교 신소재공학부의 경우, 수능 영어영역 등급에 따른 점수에서 등급은 1이며, 점수는 139입니다. 이 점수는 매우 높은 점수로, 일반적으로 고등학교 졸업예정자 중 상위 5% 내외의 학생들이 받을 수 있는 점수입니다.
+따라서, 동의대학교 신소재공학부에 지원하려면 대략 B+ 등급 이상의 영어 성적을 보유하고 있어야 합니다. 하지만 정확한 등급은 모집단위와 전형방법에 따라 다르므로, 해당 학과의 최신 모집요강을 확인하시기 바랍니다.
+추가적으로, 수능 국어, 수학, 탐구 영역에서도 높은 점수를 받는 것이 중요하며, 학생부 종합 평가에서도 우수한 성적을 보여줘야 합니다. 따라서 전체적인 합격 가능성을 판단하기 위해서는 여러 요소를 고려해야 합니다.
+더 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7108800411224365</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 특정 학과의 경쟁률과 충원 합격자 수, 지원 인원 등을 고려할 때, 작년에 비해 표준점수가 약간 변동될 가능성이 있습니다. 하지만 작년 신소재공학과의 최종 평균 표준점수가 447점보다 약간 높았다면, 다음과 같은 요인들을 고려해야 합니다:
+1. **모집 인원 및 지원 인원 변화**: 작년과 올해의 모집 인원이나 지원 인원이 달라졌을 경우, 경쟁률이 변동될 수 있습니다.
+2. **경쟁률 변화**: 작년보다 더 많은 지원자가 신소재공학과를 지원했거나, 반대로 fewer 지원자가 지원했다면 평균 표준점수가 변동될 수 있습니다.
+3. **충원 합격자 수**: 작년에 비해 충원 합격자 수가 늘어나거나 줄어들었을 경우, 최종 평균 표준점수가 변동될 수 있습니다.
+4. **학생들의 성적 분포 변화**: 작년과 올해의 학생들의 성적이 어떻게 분포되었는지에 따라 평균이 달라질 수 있습니다.
+5. **입학사정관의 평가 기준 변화**: 입학사정관들이 평가하는 기준이나 방식이 변동되었다면, 표준점수가 달라질 수 있습니다.
+따라서 447점으로 환산된 표준점수가 작년보다 약간 높았다면, 작년의 상황과 비교해보면서 이러한 요인들을 고려해야 합니다. 하지만 이는 확실한 보장이 아니므로, 최종적인 결과를 확인하기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 참고하는 것이 좋습니다.
+추가적으로, 만약 정확한 정보를 원하신다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 동의대학교 입학처에 직접 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.7197816967964172</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3 등급의 성적이 4.1~4.2 정도로 변환되면, 신소재공학과의 일반학생전형에 합격 가능성은 낮지만 아직 불가능한 것은 아닙니다. 신소재공학과는 수능 영역별 표준점수와 등급 점수가 반영되며, 가산점도 적용됩니다.
+신소재공학과의 경우, 수능 성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수
+4.3등급을 4.1~4.2로 변환한다고 가정하면, 해당 점수가 어느 정도의 표준점수를 얻는지 확인해야 합니다.
+예를 들어:
+- 국어: 4.3 등급 → 표준점수 (대략 90점)
+- 수학: 4.1~4.2 등급 → 표준점수 (대략 85점)
+- 영어: 4.3 등급 → 등급 점수 (대략 107점)
+- 탐구: 대략 80점
+이렇게 합치면:
+90 + 85 + 107 + 80 = 362점
+신소재공학과의 수능 성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급 점수 + 탐구 표준점수
+이 점수로 합격 가능성을 판단해보겠습니다. 신소재공학과의 최종등록자들의 성적 분포를 보면, 평균 427.00점 (표준변환점수)으로 보니, 현재 예상 점수가 약간 낮아 보입니다.
+하지만, 합격선이 정확히 어느 수준인지 확인해야 합니다:
+1. **최종등록자 성적 분석**: 신소재공학과의 최종 등록자의 평균점수와 표준편차를 확인해보세요.
+2. **동점자 처리 기준**: 동점자 처리 기준을 고려하면, 조금 더 낮은 점수라도 합격 가능성은 있습니다.
+따라서, 현재 성적이 약간 부족한 경우에도:
+- **추가 준비**: 실기나 면접 등 다른 요소를 잘 준비하여 보완할 수 있습니다.
+- **재도전**: 만약 이번에 불합격했다면, 다음 기회를 노려보는 것도 방법입니다.
+결론적으로, 현재 성적만으로는 합격하기 어렵지만, 추가적인 노력과 지원 자료의 품질을 높이는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.8375706672668457</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최종 등록자들의 성적 정보를 제공해 드리겠습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 403.85
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차**: 15.55
+- **영어 등급의 평균**: 4.53
+- **영어 등급의 표준 편차**: 0.80
+- **수능 4개 영역 등급의 평균**: 5.25
+- **수능 4개 영역 등급의 표준 편차**: 0.35
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균**: 434.70
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차**: 8.01
+이 정보를 참고하시면 도움이 될 것입니다. 성적을 보고 지원 가능성을 판단하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8659470081329346</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 영어 점수는 상당히 높은 점수입니다. 각 단과대학 및 모집단위별로 수능 영어 등급의 평균과 표준 편차를 고려하여 추합 가능성 여부를 판단할 수 있습니다.
+예를 들어, 일부 학과에서는 5등급 이상이 요구되며, 다른 학과는 더 높은 점수를 필요로 할 수 있습니다. 따라서, 정확한 추합 가능성을 확인하기 위해서는 다음과 같은 정보들을 고려해야 합니다:
+1. **모집단위별 수능 영어 등급의 평균 및 표준 편차**: 각 모집단위에서 지원자들의 수능 영어 점수의 평균과 분산을 확인합니다.
+2. **정원 내/외 모집인원**: 정원 외 모집인원이 얼마나 있는지 확인하여 경쟁률을 예측할 수 있습니다.
+예를 들어, 특정 학과에서:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 360.00이고, 표준 편차는 15.00이며,
+- 영어 등급의 평균은 4.87이고, 표준 편차는 0.29인 경우,
+- 5.27이라는 점수는 상대적으로 높은 점수로, 경쟁률이 낮은 모집단위에서는 추합 가능성이 높습니다.
+따라서, 정확한 답변을 위해서는 해당 단과대학 및 모집단위의 구체적인 수능 성적 분포와 모집인원 등을 확인해야 합니다. 
+추후에 더 자세한 정보를 제공해 주시면, 더욱 정확한 추합 가능성 여부를 판단할 수 있을 것 같습니다.
+더 궁금하신 점이 있으시다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 공식 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.7936631441116333</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 ICT융합공과대학 소프트웨어공학부의 경쟁률과 합격 평균 점수를 살펴보겠습니다.
+- **소프WARE공학부**
+  - 모집 인원: 30명
+  - 지원 인원: 146명
+  - 경쟁률: 4.87
+  - 충원 합격 (후보순위): 63명
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 영어 등급의 평균: 3.77
+이 정보를 바탕으로, 성적 4.2는 교과 성적이므로, 이 점수만을 고려할 때 경쟁률이 매우 높은 편입니다 (4.87). 그러나 동의대학교 소프WARE공학부는 다양한 평가 요소를 고려하므로, 다음과 같은 요인들을 종합적으로 고려해야 합니다:
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 317.87이라는 평균 점수가 비교적 높습니다. 성적이 4.2라면, 이 점수보다는 낮지만, 다른 요소들이 좋은 경우에도 충분히 경쟁력을 갖출 수 있습니다.
+2. **영어 등급**: 평균 영어 등급이 3.77으로, 성적 4.2의 학생은 이보다 높으므로 이 부분에서도 유리합니다.
+3. **전공적합성 및 면접 성과**: 전공적합성 평가와 면접에서 좋은 결과를 얻는다면, 경쟁력을 높일 수 있습니다.
+4. **추천서 및 자기소개서 등 추가 서류**: 이들 문서에서도 긍정적인 평가를 받으면 도움이 될 것입니다.
+따라서, 성적이 4.2라면 소프WARE공학부에 지원하는 것은 가능하지만, 경쟁률이 높아서 확실한 합격을 보장할 수는 없습니다. 다른 요소들을 잘 준비하고, 면접 등에서도 좋은 평가를 받는다면 충분히 가능성을 가지고 있습니다.
+추천되는 조치:
+- **자기소개서 및 추천서 작성**: 이 부분에서 자신의 열정과 적합성 등을 강조해야 합니다.
+- **면접 준비**: 전공적합성과 관련된 질문에 대해 잘 준비해야 합니다.
+- **추가 지원**: 다른 학교나 전형에서도 지원해보는 것이 좋습니다.
+이런 점들을 종합적으로 고려하면, 성적이 4.2인 경우에도 소프WARE공학부에 지원하는 것은 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.8397941589355469</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了判断是否可以申请东义大学的化学环境工程学部（화학환경공학부），我们需要根据提供的信息进行分析。
+首先，我们来看一下相关的信息：
+1. **化学环境工程学部的一般学生招生**：
+   - 招生人数：32人
+   - 报名人数：26人
+   - 竞争率：0.81（虽然这个数字可能不是最新的，但可以作为参考）
+   - 成绩计算方法：国语(화법과작문 또는 언어와매체) 25% + 数学(확률과통계 또는 미적분 또는 기하) 25% + 英语 25% + 探索（社会探索或科学探索-两个科目合计）25%
+2. **成绩计算示例**：
+   - 国语：104
+   - 数学(微积分)：108
+   - 英语：4级
+   - 探索（物理Ⅰ）：47
+   - 探索（化学Ⅰ）：59
+3. **成绩计算公式**：
+   (104 + 108 + 123 + 47 + 59) / 5 = 64.8
+假设你的成绩是3.92，我们需要将其转换为标准分数。根据提供的信息，我们没有直接的转换表，但可以参考以下步骤进行估算：
+- 假设你的国语、数学（微积分）、英语和探索科目分别对应的标准分如下：
+  - 国语：104
+  - 数学（微积分）：108
+  - 英语：123
+  - 探索（物理Ⅰ）：47
+  - 探索（化学Ⅰ）：59
+- 计算总分：
+  (104 + 108 + 123 + 47 + 59) / 5 = 64.8
+如果按照这个计算方法，你的成绩是64.8。但是你需要将这个分数转换为标准分（z-score），然后根据东义大学的标准来判断是否符合要求。
+假设你提供的3.92是指探索科目的等第分数，那么我们需要将其转换为标准分。通常，等第分数1-5对应的标准分范围大致如下：
+- 1级：约80
+- 2级：约70
+- 3级：约60
+- 4级：约50
+- 5级：约40
+假设你的探索科目是4级，那么标准分为50。将所有科目的标准分加起来：
+(104 + 108 + 123 + 50) / 4 = 96.75
+这个分数看起来是比较高的，但具体是否能够录取还需要参考东义大学的具体录取分数线和竞争情况。
+综上所述，如果你的总成绩在标准分转换后达到或超过化学环境工程学部的一般学生招生的标准线，那么你有可能被录取。建议你查看最新的官方信息或者直接咨询学校以获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.6160975694656372</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부에 대한 정보를 바탕으로 답변 드리겠습니다.
+1. **모집단위 및 모집인원**: 
+   - 화학공학과, 환경공학과, 응용화학과
+2. **수능 일반학생전형의 경우**:
+   - 2024학년도 동의대학교 수능(일반학생전형)에 대한 정보를 보면, 화학환경공학부는 일반적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합을 기준으로 모집합니다.
+   - 평균적인 경쟁률과 지원 인원 등을 고려할 때, 4.25의 성적은 상대적으로 좋은 수치입니다.
+3. **성적 평균 및 경쟁률**:
+   - 예를 들어, 화학공학과의 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 400-430 사이이며, 경쟁률은 대체로 5:1 이상입니다.
+   - 4.25는 이 범위 내에 위치하며, 경쟁률과 지원 인원을 고려하면 충분히 가능성이 있습니다.
+4. **추천사항**:
+   - 최종 등록자와 최초 합격자의 성적 분포를 확인하여 자신의 성적이 평균 이상인지 판단해보세요.
+   - 경쟁률이 높은 모집단위는 더 높은 점수를 목표로 설정하는 것이 좋습니다.
+따라서, 4.25의 성적을 가지고 화학환경공학부에 지원한다면 가능성이 있습니다. 하지만 최종 결정은 해당 학과의 정확한 모집인원 및 경쟁률 등을 고려하여 내야 합니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하시면 최신 정보와 지원 절차 등을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6784368753433228</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2 등급의 성적을 가지고 영화학과를 지원하셨다면, 합격 가능성은 있습니다만, 확실한 것은 아닙니다. 다음과 같은 요인들을 고려해야 합니다:
+1. **모집 인원 및 지원자 수**: 영화학과의 모집 인원이 5명이고, 최초합격자는 11명이 지원하여 경쟁률이 2.20입니다. 이는 상대적으로 낮은 경쟁률을 보여줍니다.
+2. **성적 분포**:
+   - 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 303.80
+   - 영어 등급의 평균: 3.00
+3. **성적 비교**:
+   - 4.2 등급은 3.00보다 약간 높으므로, 이 정도 성적을 가진 지원자가 합격 가능성은 있습니다.
+   - 그러나 평균 점수와 표준 편차를 고려하면, 상위권에 위치한 점수가 필요할 수 있습니다.
+4. **전형 요소**:
+   - 영화학과는 실기/실적(일반학생전형)의 경우 30%가 수능 점수이고, 70%가 실기 성적이 반영됩니다.
+   - 따라서 실기 성적이 좋은 지원자는 유리할 수 있습니다.
+5. **추천서 및 자기소개서**:
+   - 영화학과는 창의성과 표현력이 중요하므로, 추천서와 자기소개서에서 돋보이는 부분이 있다면 이점도 고려해야 합니다.
+결론적으로 4.2 등급은 합격 가능성은 있지만, 경쟁률이 낮아서 확실한 것은 아닙니다. 실기 성적과 자기소개서 등의 부가적인 요소를 잘 준비한다면 더 높은 가능성을 가지게 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.7924934029579163</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인 
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접에서 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.9915906190872192</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7966335687041283</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7758899945020675</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.78341727912426</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7862617816030979</v>
+      <c r="D305" t="n">
+        <v>0.7853136141101519</v>
       </c>
     </row>
   </sheetData>
